--- a/document/MySQL 테이블명세(2023-07-22).xlsx
+++ b/document/MySQL 테이블명세(2023-07-22).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\BigFootPrint\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HumiDK\Documents\Workspace\BigFoot_SpringMVC\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA22F3E5-68BE-4838-ACA1-ECA1E4B8D4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD07BF-414E-48F0-B8DE-12DFD7BA60A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23100" yWindow="7605" windowWidth="21855" windowHeight="11790" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="행정구역" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="167">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5176,8 +5176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F13BA8-0E7A-45F2-9911-C2DAD6A4642E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6038,9 +6038,7 @@
       <c r="F10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -11219,7 +11217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532CB52-9A73-4058-9473-F2B297E6BE91}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
